--- a/appendix/data/extracted_features.xlsx
+++ b/appendix/data/extracted_features.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninaleach/Documents/GitHub/master_thesis_rs_meta-analysis/appendix/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48F7992-B72B-FA47-9504-8DF01BA4FD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF515DEB-F6CB-634F-95E3-3EB5B22E4478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{25FBA88E-EC9F-C04D-861F-F634C314553C}"/>
   </bookViews>
@@ -1016,9 +1016,6 @@
     <t>Excluded</t>
   </si>
   <si>
-    <t>First auther and publication year used as study label.</t>
-  </si>
-  <si>
     <t>Device</t>
   </si>
   <si>
@@ -1056,6 +1053,9 @@
   </si>
   <si>
     <t>Used, Not Used</t>
+  </si>
+  <si>
+    <t>First author and publication year used as study label.</t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1520,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1598,7 +1598,7 @@
         <v>259</v>
       </c>
       <c r="F3" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="G3" t="s">
         <v>262</v>
@@ -1676,7 +1676,7 @@
         <v>319</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C7" t="s">
         <v>312</v>
@@ -1685,7 +1685,7 @@
         <v>270</v>
       </c>
       <c r="E7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F7" t="s">
         <v>264</v>
@@ -1700,7 +1700,7 @@
         <v>319</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C8" t="s">
         <v>249</v>
@@ -1709,7 +1709,7 @@
         <v>162</v>
       </c>
       <c r="E8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F8" t="s">
         <v>315</v>
@@ -1762,7 +1762,7 @@
         <v>241</v>
       </c>
       <c r="F10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G10" t="s">
         <v>290</v>
@@ -1834,7 +1834,7 @@
         <v>242</v>
       </c>
       <c r="F13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G13" t="s">
         <v>290</v>
@@ -1858,7 +1858,7 @@
         <v>299</v>
       </c>
       <c r="F14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G14" t="s">
         <v>290</v>
@@ -1980,7 +1980,7 @@
         <v>311</v>
       </c>
       <c r="F19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G19" t="s">
         <v>290</v>
@@ -2019,7 +2019,7 @@
         <v>321</v>
       </c>
       <c r="C21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>12</v>
@@ -2067,7 +2067,7 @@
         <v>323</v>
       </c>
       <c r="C23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>275</v>
@@ -2091,7 +2091,7 @@
         <v>323</v>
       </c>
       <c r="C24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>285</v>
@@ -2321,9 +2321,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A236D50-4684-D141-BBDF-37C3652D339E}">
   <dimension ref="A1:Z95"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="75" zoomScaleNormal="76" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q7" sqref="Q7"/>
+    <sheetView zoomScale="75" zoomScaleNormal="76" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16"/>
@@ -2435,7 +2435,7 @@
         <v>170</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>93</v>
@@ -2518,7 +2518,7 @@
         <v>170</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>93</v>
@@ -2601,7 +2601,7 @@
         <v>170</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>55</v>
@@ -2685,7 +2685,7 @@
         <v>170</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>55</v>
@@ -2768,7 +2768,7 @@
         <v>170</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>55</v>
@@ -2851,7 +2851,7 @@
         <v>170</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>55</v>
@@ -2934,7 +2934,7 @@
         <v>170</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>55</v>
@@ -3017,7 +3017,7 @@
         <v>170</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>55</v>
@@ -3100,7 +3100,7 @@
         <v>170</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>55</v>
@@ -3183,7 +3183,7 @@
         <v>170</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>93</v>
@@ -3266,7 +3266,7 @@
         <v>170</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>93</v>
@@ -3349,7 +3349,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E13" t="s">
         <v>111</v>
@@ -3433,7 +3433,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E14" t="s">
         <v>111</v>
@@ -3515,7 +3515,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E15" t="s">
         <v>111</v>
@@ -3597,7 +3597,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E16" t="s">
         <v>111</v>
@@ -3679,7 +3679,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E17" t="s">
         <v>111</v>
@@ -3761,7 +3761,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E18" t="s">
         <v>111</v>
@@ -3843,7 +3843,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E19" t="s">
         <v>111</v>
@@ -3925,7 +3925,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E20" t="s">
         <v>111</v>
@@ -4007,7 +4007,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E21" t="s">
         <v>111</v>
@@ -4089,7 +4089,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E22" t="s">
         <v>55</v>
@@ -4171,7 +4171,7 @@
         <v>16</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E23" t="s">
         <v>55</v>
@@ -4253,7 +4253,7 @@
         <v>16</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E24" t="s">
         <v>55</v>
@@ -4335,7 +4335,7 @@
         <v>16</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E25" t="s">
         <v>55</v>
@@ -4417,7 +4417,7 @@
         <v>16</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E26" t="s">
         <v>55</v>
@@ -4499,7 +4499,7 @@
         <v>16</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E27" t="s">
         <v>55</v>
@@ -4581,7 +4581,7 @@
         <v>16</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E28" t="s">
         <v>55</v>
@@ -4663,7 +4663,7 @@
         <v>16</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E29" t="s">
         <v>55</v>
@@ -4745,7 +4745,7 @@
         <v>16</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E30" t="s">
         <v>55</v>
@@ -4827,7 +4827,7 @@
         <v>16</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E31" t="s">
         <v>78</v>
@@ -4909,7 +4909,7 @@
         <v>16</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E32" t="s">
         <v>78</v>
@@ -4991,7 +4991,7 @@
         <v>16</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E33" t="s">
         <v>78</v>
@@ -5073,7 +5073,7 @@
         <v>16</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E34" t="s">
         <v>78</v>
@@ -5155,7 +5155,7 @@
         <v>16</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E35" t="s">
         <v>78</v>
@@ -5237,7 +5237,7 @@
         <v>16</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E36" t="s">
         <v>78</v>
@@ -5319,7 +5319,7 @@
         <v>16</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E37" t="s">
         <v>78</v>
@@ -5401,7 +5401,7 @@
         <v>16</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E38" t="s">
         <v>78</v>
@@ -5482,7 +5482,7 @@
         <v>16</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E39" t="s">
         <v>78</v>
@@ -5563,7 +5563,7 @@
         <v>16</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>82</v>
@@ -5643,7 +5643,7 @@
         <v>16</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>82</v>
@@ -5723,7 +5723,7 @@
         <v>16</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>58</v>
@@ -5804,7 +5804,7 @@
         <v>16</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>58</v>
@@ -5885,7 +5885,7 @@
         <v>218</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E44" t="s">
         <v>124</v>
@@ -5965,7 +5965,7 @@
         <v>218</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E45" t="s">
         <v>124</v>
@@ -6045,7 +6045,7 @@
         <v>218</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E46" t="s">
         <v>124</v>
@@ -6125,7 +6125,7 @@
         <v>218</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E47" t="s">
         <v>124</v>
@@ -6205,7 +6205,7 @@
         <v>218</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E48" t="s">
         <v>124</v>
@@ -6285,7 +6285,7 @@
         <v>214</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>50</v>
@@ -6367,7 +6367,7 @@
         <v>214</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>50</v>
@@ -6449,7 +6449,7 @@
         <v>214</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>50</v>
@@ -6531,7 +6531,7 @@
         <v>16</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>146</v>
@@ -6614,7 +6614,7 @@
         <v>214</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>89</v>
@@ -6695,7 +6695,7 @@
         <v>214</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>89</v>
@@ -6776,7 +6776,7 @@
         <v>214</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>89</v>
@@ -6857,7 +6857,7 @@
         <v>16</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>146</v>
@@ -6940,7 +6940,7 @@
         <v>218</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>69</v>
@@ -7023,7 +7023,7 @@
         <v>170</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>93</v>
@@ -7106,7 +7106,7 @@
         <v>170</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>93</v>
@@ -7189,7 +7189,7 @@
         <v>16</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>78</v>
@@ -7272,7 +7272,7 @@
         <v>16</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>78</v>
@@ -7355,7 +7355,7 @@
         <v>16</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>78</v>
@@ -7438,7 +7438,7 @@
         <v>16</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>78</v>
@@ -7521,7 +7521,7 @@
         <v>16</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>78</v>
@@ -7604,7 +7604,7 @@
         <v>16</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>78</v>
@@ -7687,7 +7687,7 @@
         <v>16</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>78</v>
@@ -7770,7 +7770,7 @@
         <v>170</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>35</v>
@@ -7854,7 +7854,7 @@
         <v>170</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>35</v>
@@ -7939,7 +7939,7 @@
         <v>170</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>35</v>
@@ -8024,7 +8024,7 @@
         <v>170</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>35</v>
@@ -8109,7 +8109,7 @@
         <v>214</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>32</v>
@@ -8193,7 +8193,7 @@
         <v>214</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>32</v>
@@ -8273,7 +8273,7 @@
         <v>214</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>63</v>
@@ -8355,7 +8355,7 @@
         <v>214</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>246</v>
@@ -8439,7 +8439,7 @@
         <v>214</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>246</v>
@@ -8523,7 +8523,7 @@
         <v>131</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E76" t="s">
         <v>134</v>
@@ -8604,7 +8604,7 @@
         <v>131</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E77" t="s">
         <v>134</v>
@@ -8685,7 +8685,7 @@
         <v>131</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E78" t="s">
         <v>134</v>
@@ -8764,7 +8764,7 @@
         <v>131</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E79" t="s">
         <v>134</v>
@@ -8848,7 +8848,7 @@
         <v>218</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>201</v>
@@ -8929,7 +8929,7 @@
         <v>218</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>201</v>
@@ -9010,7 +9010,7 @@
         <v>218</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>213</v>
@@ -9088,7 +9088,7 @@
         <v>214</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>146</v>
@@ -9166,7 +9166,7 @@
         <v>170</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>105</v>
@@ -9248,7 +9248,7 @@
         <v>131</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E85" t="s">
         <v>134</v>
@@ -9328,7 +9328,7 @@
         <v>131</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E86" t="s">
         <v>134</v>
@@ -9407,7 +9407,7 @@
         <v>218</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>193</v>
@@ -9485,7 +9485,7 @@
         <v>218</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>193</v>
@@ -9563,7 +9563,7 @@
         <v>218</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E89" t="s">
         <v>146</v>
@@ -9644,7 +9644,7 @@
         <v>218</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E90" t="s">
         <v>146</v>
@@ -9722,7 +9722,7 @@
         <v>218</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E91" t="s">
         <v>146</v>
@@ -9800,7 +9800,7 @@
         <v>218</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E92" t="s">
         <v>146</v>
@@ -9878,7 +9878,7 @@
         <v>218</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E93" t="s">
         <v>146</v>
@@ -9956,7 +9956,7 @@
         <v>218</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E94" t="s">
         <v>146</v>
@@ -10034,7 +10034,7 @@
         <v>218</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E95" t="s">
         <v>146</v>
